--- a/medicine/Psychotrope/Sideways/Sideways.xlsx
+++ b/medicine/Psychotrope/Sideways/Sideways.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sideways est un film américain réalisé par Alexander Payne, sorti en 2004.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Miles (Paul Giamatti), amateur de vin, offre à son ami Jack (Thomas Haden Church) une tournée dans les caves de la Californie, peu avant son mariage. Jack, indifférent aux grands crus, envisage plutôt cette escapade comme un baroud d'honneur. Les deux hommes rencontrent Stephanie (Sandra Oh) et Maya (Virginia Madsen) au cours d'une dégustation. Jack entreprend de séduire Stephanie, et menace bientôt de rompre les noces annoncées.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original et français : Sideways
 Titre québécois : À la dérive
@@ -589,9 +605,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Paul Giamatti (VF : Michel Mella) : Miles
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Giamatti (VF : Michel Mella) : Miles
 Thomas Haden Church (VF : Eric Herson-Macarel) : Jack
 Virginia Madsen (VF : Léa Gabriele) : Maya
 Sandra Oh (VF : Yumi Fujimori) : Stephanie
@@ -613,7 +631,7 @@
 Enregistrement : Benoît Joly
 Mixage : Frédéric Dray
 Montage : Élise Lesot
-Source : Voxofilm [1]</t>
+Source : Voxofilm </t>
         </is>
       </c>
     </row>
@@ -642,6 +660,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -667,7 +687,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2004 : Los Angeles Film Critics Association Award du meilleur film
 2004 : Independent Spirit Award du meilleur film
